--- a/migforecasting/cities19-21/d1.xlsx
+++ b/migforecasting/cities19-21/d1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities19-21\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21030" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="181">
   <si>
     <t>Белгород</t>
   </si>
@@ -1634,54 +1639,6 @@
   </si>
   <si>
     <t>больничных организаций, коек</t>
-  </si>
-  <si>
-    <t>сетей газификации, км</t>
-  </si>
-  <si>
-    <r>
-      <t>торговых предприятий, торговой площадью тыс.м</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>торгово-офисных центров, м</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>общей площади</t>
-    </r>
-  </si>
-  <si>
-    <t>предприятий общественного питания, посадочных мест</t>
   </si>
   <si>
     <r>
@@ -1898,7 +1855,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -2028,7 +1985,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2176,11 +2133,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2254,74 +2220,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2332,6 +2289,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2380,7 +2340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2415,7 +2375,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2626,8 +2586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2637,42 +2597,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="2">
         <v>2019</v>
       </c>
@@ -2693,15 +2653,15 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2922,15 +2882,15 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -3002,15 +2962,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -3505,15 +3465,15 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="43"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="39"/>
     </row>
     <row r="46" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -3619,15 +3579,15 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="36"/>
     </row>
     <row r="52" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -3722,15 +3682,15 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="36"/>
     </row>
     <row r="57" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -3756,15 +3716,15 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="36"/>
     </row>
     <row r="59" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -3870,15 +3830,15 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="36"/>
     </row>
     <row r="65" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -4053,324 +4013,230 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B73" s="12">
-        <v>25.1</v>
-      </c>
-      <c r="C73" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D73" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="E73" s="12">
-        <v>24.8</v>
-      </c>
-      <c r="F73" s="12">
-        <v>15.3</v>
-      </c>
-      <c r="G73" s="13">
-        <v>20.100000000000001</v>
-      </c>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
     </row>
     <row r="74" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B74" s="12">
-        <v>2.1</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>161</v>
+      <c r="B74" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" s="12">
+        <v>50249.8</v>
       </c>
       <c r="D74" s="12">
-        <v>1.9</v>
+        <v>62330.400000000001</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F74" s="12">
-        <v>6.1</v>
+        <v>27138.2</v>
       </c>
       <c r="G74" s="13">
-        <v>0.3</v>
+        <v>32525.9</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C75" s="20">
-        <v>9613</v>
-      </c>
-      <c r="D75" s="20">
-        <v>2935</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>161</v>
+      <c r="A75" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="12">
+        <v>105.3</v>
+      </c>
+      <c r="C75" s="12">
+        <v>106.3</v>
+      </c>
+      <c r="D75" s="12">
+        <v>114.7</v>
+      </c>
+      <c r="E75" s="12">
+        <v>100.7</v>
+      </c>
+      <c r="F75" s="12">
+        <v>107.4</v>
+      </c>
+      <c r="G75" s="13">
+        <v>110.9</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C76" s="47">
-        <v>117</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>161</v>
+      <c r="A76" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="12">
+        <v>999.1</v>
+      </c>
+      <c r="C76" s="12">
+        <v>727.6</v>
+      </c>
+      <c r="D76" s="12">
+        <v>1551.1</v>
+      </c>
+      <c r="E76" s="12">
+        <v>745.7</v>
+      </c>
+      <c r="F76" s="12">
+        <v>738.5</v>
+      </c>
+      <c r="G76" s="13">
+        <v>1297.7</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="35"/>
+      <c r="A77" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" s="14">
+        <v>109.9</v>
+      </c>
+      <c r="C77" s="14">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="D77" s="14">
+        <v>199.5</v>
+      </c>
+      <c r="E77" s="14">
+        <v>105.2</v>
+      </c>
+      <c r="F77" s="14">
+        <v>93.9</v>
+      </c>
+      <c r="G77" s="15">
+        <v>164.4</v>
+      </c>
     </row>
     <row r="78" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C78" s="12">
-        <v>50249.8</v>
-      </c>
-      <c r="D78" s="12">
-        <v>62330.400000000001</v>
-      </c>
-      <c r="E78" s="12" t="s">
+      <c r="A78" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="F78" s="12">
-        <v>27138.2</v>
-      </c>
-      <c r="G78" s="13">
-        <v>32525.9</v>
-      </c>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
     </row>
     <row r="79" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="B79" s="12">
-        <v>105.3</v>
-      </c>
-      <c r="C79" s="12">
-        <v>106.3</v>
-      </c>
-      <c r="D79" s="12">
-        <v>114.7</v>
-      </c>
-      <c r="E79" s="12">
-        <v>100.7</v>
-      </c>
-      <c r="F79" s="12">
-        <v>107.4</v>
-      </c>
-      <c r="G79" s="13">
-        <v>110.9</v>
-      </c>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
     </row>
     <row r="80" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="B80" s="12">
-        <v>999.1</v>
-      </c>
-      <c r="C80" s="12">
-        <v>727.6</v>
-      </c>
-      <c r="D80" s="12">
-        <v>1551.1</v>
-      </c>
-      <c r="E80" s="12">
-        <v>745.7</v>
-      </c>
-      <c r="F80" s="12">
-        <v>738.5</v>
-      </c>
-      <c r="G80" s="13">
-        <v>1297.7</v>
-      </c>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
     </row>
     <row r="81" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B81" s="14">
-        <v>109.9</v>
-      </c>
-      <c r="C81" s="14">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="D81" s="14">
-        <v>199.5</v>
-      </c>
-      <c r="E81" s="14">
-        <v>105.2</v>
-      </c>
-      <c r="F81" s="14">
-        <v>93.9</v>
-      </c>
-      <c r="G81" s="15">
-        <v>164.4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="27" t="s">
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="29"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="32"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="43"/>
     </row>
     <row r="84" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="32"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="43"/>
     </row>
     <row r="85" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="32"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="43"/>
     </row>
     <row r="86" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="24" t="s">
+      <c r="A86" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="26"/>
-    </row>
-    <row r="87" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="26"/>
-    </row>
-    <row r="88" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="26"/>
-    </row>
-    <row r="89" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="26"/>
-    </row>
-    <row r="90" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="26"/>
-    </row>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="43"/>
+    </row>
+    <row r="87" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="17">
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A82:G82"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A77:G77"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="A87:G87"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="A89:G89"/>
-    <mergeCell ref="A90:G90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
